--- a/gestion/planificacion.xlsx
+++ b/gestion/planificacion.xlsx
@@ -4,15 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7812"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>kklk</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,7 +68,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Oficina">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +106,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Oficina">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -168,7 +176,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Oficina">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -342,12 +350,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -359,7 +375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -372,7 +388,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
